--- a/res/LaurynasStasysSpotify - removedDuplicatedRows.xlsx
+++ b/res/LaurynasStasysSpotify - removedDuplicatedRows.xlsx
@@ -1,15 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kamil\Documents\Visual Studio 2013\Projects\SpotifyNotificationParserForExcel\res\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12435"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -19,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="752" uniqueCount="291">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="736" uniqueCount="275">
   <si>
     <t>date</t>
   </si>
@@ -840,58 +845,10 @@
     <t>artist</t>
   </si>
   <si>
-    <t>total plays</t>
-  </si>
-  <si>
-    <t>duration minutes</t>
-  </si>
-  <si>
-    <t>duration seconds</t>
-  </si>
-  <si>
-    <t>duration total in seconds</t>
-  </si>
-  <si>
-    <t>album title</t>
-  </si>
-  <si>
-    <t>Convention Hall August 5, 1975, Asbury, New Jersey (Doxy Collection, Remastered, Live)</t>
-  </si>
-  <si>
-    <t>album year release</t>
-  </si>
-  <si>
-    <t>Crime Of The Century (Remastered)</t>
-  </si>
-  <si>
-    <t>Physical Graffiti (Deluxe Edition)</t>
-  </si>
-  <si>
-    <t>Innuendo (2011 Remaster)</t>
-  </si>
-  <si>
-    <t>The Dark Side Of The Moon (2011 Remaster)</t>
-  </si>
-  <si>
-    <t>Progressive rock</t>
-  </si>
-  <si>
-    <t>The Cream of Clapton</t>
-  </si>
-  <si>
-    <t>The Very Best Of Cream</t>
-  </si>
-  <si>
-    <t>Appetite For Destruction</t>
-  </si>
-  <si>
-    <t>Houses Of The Holy (Deluxe Edition)</t>
-  </si>
-  <si>
-    <t>Quadrophenia</t>
-  </si>
-  <si>
-    <t>Chinese Wall</t>
+    <t>duration (Echonest)</t>
+  </si>
+  <si>
+    <t>duration (Spotify)</t>
   </si>
 </sst>
 </file>
@@ -1205,7 +1162,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1213,10 +1170,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K366"/>
+  <dimension ref="A1:F366"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1225,8 +1182,8 @@
     <col min="2" max="2" width="20" customWidth="1"/>
     <col min="3" max="3" width="70.5703125" customWidth="1"/>
     <col min="4" max="4" width="33.7109375" customWidth="1"/>
-    <col min="5" max="5" width="7.140625" customWidth="1"/>
-    <col min="6" max="6" width="11.140625" customWidth="1"/>
+    <col min="5" max="5" width="23.85546875" customWidth="1"/>
+    <col min="6" max="6" width="23.140625" customWidth="1"/>
     <col min="7" max="7" width="19.7109375" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" customWidth="1"/>
     <col min="9" max="9" width="79.140625" customWidth="1"/>
@@ -1234,7 +1191,7 @@
     <col min="11" max="11" width="16.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1248,28 +1205,13 @@
         <v>272</v>
       </c>
       <c r="E1" t="s">
+        <v>273</v>
+      </c>
+      <c r="F1" t="s">
         <v>274</v>
       </c>
-      <c r="F1" t="s">
-        <v>275</v>
-      </c>
-      <c r="G1" t="s">
-        <v>276</v>
-      </c>
-      <c r="H1" t="s">
-        <v>273</v>
-      </c>
-      <c r="I1" t="s">
-        <v>277</v>
-      </c>
-      <c r="J1" t="s">
-        <v>279</v>
-      </c>
-      <c r="K1" t="s">
-        <v>284</v>
-      </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2" s="2">
         <v>42144</v>
       </c>
@@ -1283,20 +1225,13 @@
         <v>3</v>
       </c>
       <c r="E2" s="4">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="F2">
-        <v>8</v>
-      </c>
-      <c r="G2">
-        <f t="shared" ref="G2:G12" si="0">E2*60 + F2</f>
         <v>308</v>
       </c>
-      <c r="H2">
-        <v>269242</v>
-      </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" s="2">
         <v>42144</v>
       </c>
@@ -1309,21 +1244,14 @@
       <c r="D3" t="s">
         <v>5</v>
       </c>
-      <c r="E3">
-        <v>18</v>
+      <c r="E3" s="4">
+        <v>0</v>
       </c>
       <c r="F3">
-        <v>41</v>
-      </c>
-      <c r="G3">
-        <f t="shared" si="0"/>
         <v>1121</v>
       </c>
-      <c r="H3">
-        <v>759049</v>
-      </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" s="2">
         <v>42144</v>
       </c>
@@ -1336,27 +1264,14 @@
       <c r="D4" t="s">
         <v>7</v>
       </c>
-      <c r="E4">
-        <v>6</v>
+      <c r="E4" s="4">
+        <v>0</v>
       </c>
       <c r="F4">
-        <v>47</v>
-      </c>
-      <c r="G4">
-        <f t="shared" si="0"/>
         <v>407</v>
       </c>
-      <c r="H4">
-        <v>18528</v>
-      </c>
-      <c r="I4" t="s">
-        <v>278</v>
-      </c>
-      <c r="J4">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A5" s="2">
         <v>42144</v>
       </c>
@@ -1369,27 +1284,14 @@
       <c r="D5" t="s">
         <v>9</v>
       </c>
-      <c r="E5">
-        <v>5</v>
+      <c r="E5" s="4">
+        <v>0</v>
       </c>
       <c r="F5">
-        <v>35</v>
-      </c>
-      <c r="G5">
-        <f t="shared" si="0"/>
         <v>335</v>
       </c>
-      <c r="H5">
-        <v>6293132</v>
-      </c>
-      <c r="I5" t="s">
-        <v>280</v>
-      </c>
-      <c r="J5">
-        <v>1974</v>
-      </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A6" s="2">
         <v>42144</v>
       </c>
@@ -1402,27 +1304,14 @@
       <c r="D6" t="s">
         <v>11</v>
       </c>
-      <c r="E6">
-        <v>4</v>
+      <c r="E6" s="4">
+        <v>0</v>
       </c>
       <c r="F6">
-        <v>9</v>
-      </c>
-      <c r="G6">
-        <f t="shared" si="0"/>
         <v>249</v>
       </c>
-      <c r="H6">
-        <v>1136709</v>
-      </c>
-      <c r="I6" t="s">
-        <v>281</v>
-      </c>
-      <c r="J6">
-        <v>2015</v>
-      </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A7" s="2">
         <v>42144</v>
       </c>
@@ -1435,27 +1324,14 @@
       <c r="D7" t="s">
         <v>13</v>
       </c>
-      <c r="E7">
-        <v>6</v>
+      <c r="E7" s="4">
+        <v>0</v>
       </c>
       <c r="F7">
-        <v>33</v>
-      </c>
-      <c r="G7">
-        <f t="shared" si="0"/>
         <v>393</v>
       </c>
-      <c r="H7">
-        <v>4840060</v>
-      </c>
-      <c r="I7" t="s">
-        <v>282</v>
-      </c>
-      <c r="J7">
-        <v>1991</v>
-      </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A8" s="2">
         <v>42144</v>
       </c>
@@ -1468,27 +1344,14 @@
       <c r="D8" t="s">
         <v>15</v>
       </c>
-      <c r="E8">
-        <v>7</v>
+      <c r="E8" s="4">
+        <v>0</v>
       </c>
       <c r="F8">
-        <v>49</v>
-      </c>
-      <c r="G8">
-        <f t="shared" si="0"/>
         <v>469</v>
       </c>
-      <c r="H8">
-        <v>5025144</v>
-      </c>
-      <c r="I8" t="s">
-        <v>283</v>
-      </c>
-      <c r="J8">
-        <v>1973</v>
-      </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A9" s="2">
         <v>42144</v>
       </c>
@@ -1501,27 +1364,14 @@
       <c r="D9" t="s">
         <v>17</v>
       </c>
-      <c r="E9">
-        <v>3</v>
+      <c r="E9" s="4">
+        <v>0</v>
       </c>
       <c r="F9">
-        <v>37</v>
-      </c>
-      <c r="G9">
-        <f t="shared" si="0"/>
         <v>217</v>
       </c>
-      <c r="H9">
-        <v>25922310</v>
-      </c>
-      <c r="I9" t="s">
-        <v>285</v>
-      </c>
-      <c r="J9">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A10" s="2">
         <v>42144</v>
       </c>
@@ -1534,27 +1384,14 @@
       <c r="D10" t="s">
         <v>19</v>
       </c>
-      <c r="E10">
-        <v>4</v>
+      <c r="E10" s="4">
+        <v>0</v>
       </c>
       <c r="F10">
-        <v>16</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="0"/>
         <v>256</v>
       </c>
-      <c r="H10">
-        <v>5046454</v>
-      </c>
-      <c r="I10" t="s">
-        <v>286</v>
-      </c>
-      <c r="J10">
-        <v>1995</v>
-      </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A11" s="2">
         <v>42144</v>
       </c>
@@ -1567,27 +1404,14 @@
       <c r="D11" t="s">
         <v>21</v>
       </c>
-      <c r="E11">
-        <v>5</v>
+      <c r="E11" s="4">
+        <v>0</v>
       </c>
       <c r="F11">
-        <v>56</v>
-      </c>
-      <c r="G11">
-        <f t="shared" si="0"/>
         <v>356</v>
       </c>
-      <c r="H11">
-        <v>80624113</v>
-      </c>
-      <c r="I11" t="s">
-        <v>287</v>
-      </c>
-      <c r="J11">
-        <v>1987</v>
-      </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A12" s="2">
         <v>42144</v>
       </c>
@@ -1600,27 +1424,14 @@
       <c r="D12" t="s">
         <v>11</v>
       </c>
-      <c r="E12">
-        <v>4</v>
+      <c r="E12" s="4">
+        <v>0</v>
       </c>
       <c r="F12">
-        <v>51</v>
-      </c>
-      <c r="G12">
-        <f t="shared" si="0"/>
         <v>291</v>
       </c>
-      <c r="H12">
-        <v>4521227</v>
-      </c>
-      <c r="I12" t="s">
-        <v>288</v>
-      </c>
-      <c r="J12">
-        <v>2014</v>
-      </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A13" s="2">
         <v>42144</v>
       </c>
@@ -1633,27 +1444,14 @@
       <c r="D13" t="s">
         <v>24</v>
       </c>
-      <c r="E13">
-        <v>6</v>
+      <c r="E13" s="4">
+        <v>0</v>
       </c>
       <c r="F13">
-        <v>13</v>
-      </c>
-      <c r="G13">
-        <f t="shared" ref="G13:G37" si="1">E13*60 + F13</f>
         <v>373</v>
       </c>
-      <c r="H13">
-        <v>625710</v>
-      </c>
-      <c r="I13" t="s">
-        <v>289</v>
-      </c>
-      <c r="J13">
-        <v>1974</v>
-      </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A14" s="2">
         <v>42144</v>
       </c>
@@ -1666,27 +1464,14 @@
       <c r="D14" t="s">
         <v>26</v>
       </c>
-      <c r="E14">
-        <v>5</v>
+      <c r="E14" s="4">
+        <v>0</v>
       </c>
       <c r="F14">
-        <v>5</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="1"/>
         <v>305</v>
       </c>
-      <c r="H14">
-        <v>10145982</v>
-      </c>
-      <c r="I14" t="s">
-        <v>290</v>
-      </c>
-      <c r="J14">
-        <v>1985</v>
-      </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A15" s="2">
         <v>42144</v>
       </c>
@@ -1699,12 +1484,11 @@
       <c r="D15" t="s">
         <v>28</v>
       </c>
-      <c r="G15">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="E15" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A16" s="2">
         <v>42144</v>
       </c>
@@ -1717,12 +1501,11 @@
       <c r="D16" t="s">
         <v>30</v>
       </c>
-      <c r="G16">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E16" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" s="2">
         <v>42144</v>
       </c>
@@ -1735,12 +1518,11 @@
       <c r="D17" t="s">
         <v>32</v>
       </c>
-      <c r="G17">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E17" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="2">
         <v>42144</v>
       </c>
@@ -1753,12 +1535,11 @@
       <c r="D18" t="s">
         <v>34</v>
       </c>
-      <c r="G18">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E18" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="2">
         <v>42144</v>
       </c>
@@ -1771,12 +1552,11 @@
       <c r="D19" t="s">
         <v>36</v>
       </c>
-      <c r="G19">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E19" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A20" s="2">
         <v>42144</v>
       </c>
@@ -1789,12 +1569,11 @@
       <c r="D20" t="s">
         <v>38</v>
       </c>
-      <c r="G20">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E20" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A21" s="2">
         <v>42144</v>
       </c>
@@ -1807,12 +1586,11 @@
       <c r="D21" t="s">
         <v>40</v>
       </c>
-      <c r="G21">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E21" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A22" s="2">
         <v>42144</v>
       </c>
@@ -1825,12 +1603,11 @@
       <c r="D22" t="s">
         <v>42</v>
       </c>
-      <c r="G22">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E22" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="2">
         <v>42144</v>
       </c>
@@ -1843,12 +1620,11 @@
       <c r="D23" t="s">
         <v>44</v>
       </c>
-      <c r="G23">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E23" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="2">
         <v>42144</v>
       </c>
@@ -1861,12 +1637,11 @@
       <c r="D24" t="s">
         <v>46</v>
       </c>
-      <c r="G24">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E24" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A25" s="2">
         <v>42145</v>
       </c>
@@ -1879,12 +1654,11 @@
       <c r="D25" t="s">
         <v>3</v>
       </c>
-      <c r="G25">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E25" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A26" s="2">
         <v>42145</v>
       </c>
@@ -1897,12 +1671,11 @@
       <c r="D26" t="s">
         <v>49</v>
       </c>
-      <c r="G26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E26" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="2">
         <v>42145</v>
       </c>
@@ -1915,12 +1688,11 @@
       <c r="D27" t="s">
         <v>51</v>
       </c>
-      <c r="G27">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E27" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A28" s="2">
         <v>42145</v>
       </c>
@@ -1933,12 +1705,11 @@
       <c r="D28" t="s">
         <v>21</v>
       </c>
-      <c r="G28">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E28" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A29" s="2">
         <v>42145</v>
       </c>
@@ -1951,12 +1722,11 @@
       <c r="D29" t="s">
         <v>54</v>
       </c>
-      <c r="G29">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E29" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="2">
         <v>42145</v>
       </c>
@@ -1969,12 +1739,11 @@
       <c r="D30" t="s">
         <v>21</v>
       </c>
-      <c r="G30">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E30" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="2">
         <v>42145</v>
       </c>
@@ -1987,12 +1756,11 @@
       <c r="D31" t="s">
         <v>57</v>
       </c>
-      <c r="G31">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E31" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="2">
         <v>42145</v>
       </c>
@@ -2005,12 +1773,11 @@
       <c r="D32" t="s">
         <v>59</v>
       </c>
-      <c r="G32">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E32" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="2">
         <v>42145</v>
       </c>
@@ -2023,12 +1790,11 @@
       <c r="D33" t="s">
         <v>11</v>
       </c>
-      <c r="G33">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E33" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="2">
         <v>42145</v>
       </c>
@@ -2041,12 +1807,11 @@
       <c r="D34" t="s">
         <v>5</v>
       </c>
-      <c r="G34">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E34" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A35" s="2">
         <v>42145</v>
       </c>
@@ -2059,12 +1824,11 @@
       <c r="D35" t="s">
         <v>7</v>
       </c>
-      <c r="G35">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E35" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="2">
         <v>42145</v>
       </c>
@@ -2077,12 +1841,11 @@
       <c r="D36" t="s">
         <v>36</v>
       </c>
-      <c r="G36">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E36" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A37" s="2">
         <v>42145</v>
       </c>
@@ -2095,12 +1858,11 @@
       <c r="D37" t="s">
         <v>11</v>
       </c>
-      <c r="G37">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E37" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="2">
         <v>42145</v>
       </c>
@@ -2113,8 +1875,11 @@
       <c r="D38" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E38" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A39" s="2">
         <v>42146</v>
       </c>
@@ -2127,8 +1892,11 @@
       <c r="D39" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E39" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A40" s="2">
         <v>42146</v>
       </c>
@@ -2141,8 +1909,11 @@
       <c r="D40" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E40" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="2">
         <v>42146</v>
       </c>
@@ -2155,8 +1926,11 @@
       <c r="D41" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E41" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="2">
         <v>42146</v>
       </c>
@@ -2169,8 +1943,11 @@
       <c r="D42" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E42" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="2">
         <v>42146</v>
       </c>
@@ -2183,8 +1960,11 @@
       <c r="D43" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E43" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="2">
         <v>42146</v>
       </c>
@@ -2197,8 +1977,11 @@
       <c r="D44" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E44" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A45" s="2">
         <v>42146</v>
       </c>
@@ -2211,8 +1994,11 @@
       <c r="D45" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E45" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="2">
         <v>42146</v>
       </c>
@@ -2225,8 +2011,11 @@
       <c r="D46" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E46" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="2">
         <v>42146</v>
       </c>
@@ -2239,8 +2028,11 @@
       <c r="D47" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E47" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="2">
         <v>42146</v>
       </c>
@@ -2253,8 +2045,11 @@
       <c r="D48" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E48" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A49" s="2">
         <v>42146</v>
       </c>
@@ -2267,8 +2062,11 @@
       <c r="D49" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E49" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="2">
         <v>42146</v>
       </c>
@@ -2281,8 +2079,11 @@
       <c r="D50" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A51" s="2">
         <v>42146</v>
       </c>
@@ -2295,8 +2096,11 @@
       <c r="D51" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A52" s="2">
         <v>42146</v>
       </c>
@@ -2309,8 +2113,11 @@
       <c r="D52" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E52" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="2">
         <v>42146</v>
       </c>
@@ -2323,8 +2130,11 @@
       <c r="D53" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E53" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="2">
         <v>42146</v>
       </c>
@@ -2337,8 +2147,11 @@
       <c r="D54" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E54" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="2">
         <v>42147</v>
       </c>
@@ -2351,8 +2164,11 @@
       <c r="D55" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E55" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="2">
         <v>42147</v>
       </c>
@@ -2365,8 +2181,11 @@
       <c r="D56" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E56" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="2">
         <v>42147</v>
       </c>
@@ -2379,8 +2198,11 @@
       <c r="D57" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E57" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A58" s="2">
         <v>42147</v>
       </c>
@@ -2393,8 +2215,11 @@
       <c r="D58" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E58" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="2">
         <v>42147</v>
       </c>
@@ -2407,8 +2232,11 @@
       <c r="D59" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E59" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A60" s="2">
         <v>42147</v>
       </c>
@@ -2421,8 +2249,11 @@
       <c r="D60" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E60" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="2">
         <v>42147</v>
       </c>
@@ -2435,8 +2266,11 @@
       <c r="D61" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E61" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A62" s="2">
         <v>42147</v>
       </c>
@@ -2449,8 +2283,11 @@
       <c r="D62" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E62" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A63" s="2">
         <v>42147</v>
       </c>
@@ -2463,8 +2300,11 @@
       <c r="D63" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E63" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A64" s="2">
         <v>42147</v>
       </c>
@@ -2477,8 +2317,11 @@
       <c r="D64" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E64" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A65" s="2">
         <v>42147</v>
       </c>
@@ -2491,8 +2334,11 @@
       <c r="D65" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E65" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A66" s="2">
         <v>42147</v>
       </c>
@@ -2505,8 +2351,11 @@
       <c r="D66" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E66" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A67" s="2">
         <v>42147</v>
       </c>
@@ -2519,8 +2368,11 @@
       <c r="D67" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E67" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A68" s="2">
         <v>42147</v>
       </c>
@@ -2533,8 +2385,11 @@
       <c r="D68" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E68" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A69" s="2">
         <v>42147</v>
       </c>
@@ -2547,8 +2402,11 @@
       <c r="D69" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E69" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="2">
         <v>42147</v>
       </c>
@@ -2561,8 +2419,11 @@
       <c r="D70" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E70" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="2">
         <v>42147</v>
       </c>
@@ -2575,8 +2436,11 @@
       <c r="D71" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E71" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="2">
         <v>42147</v>
       </c>
@@ -2589,8 +2453,11 @@
       <c r="D72" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E72" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A73" s="2">
         <v>42148</v>
       </c>
@@ -2603,8 +2470,11 @@
       <c r="D73" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E73" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="2">
         <v>42148</v>
       </c>
@@ -2617,8 +2487,11 @@
       <c r="D74" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E74" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="2">
         <v>42148</v>
       </c>
@@ -2631,8 +2504,11 @@
       <c r="D75" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E75" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="2">
         <v>42148</v>
       </c>
@@ -2645,8 +2521,11 @@
       <c r="D76" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E76" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="2">
         <v>42148</v>
       </c>
@@ -2659,8 +2538,11 @@
       <c r="D77" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E77" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="2">
         <v>42148</v>
       </c>
@@ -2673,8 +2555,11 @@
       <c r="D78" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E78" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="2">
         <v>42148</v>
       </c>
@@ -2687,8 +2572,11 @@
       <c r="D79" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E79" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A80" s="2">
         <v>42148</v>
       </c>
@@ -2701,8 +2589,11 @@
       <c r="D80" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E80" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="2">
         <v>42148</v>
       </c>
@@ -2715,8 +2606,11 @@
       <c r="D81" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E81" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A82" s="2">
         <v>42148</v>
       </c>
@@ -2729,8 +2623,11 @@
       <c r="D82" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E82" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A83" s="2">
         <v>42148</v>
       </c>
@@ -2743,8 +2640,11 @@
       <c r="D83" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E83" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A84" s="2">
         <v>42148</v>
       </c>
@@ -2757,8 +2657,11 @@
       <c r="D84" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E84" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A85" s="2">
         <v>42148</v>
       </c>
@@ -2771,8 +2674,11 @@
       <c r="D85" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E85" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="2">
         <v>42148</v>
       </c>
@@ -2785,8 +2691,11 @@
       <c r="D86" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E86" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A87" s="2">
         <v>42148</v>
       </c>
@@ -2799,8 +2708,11 @@
       <c r="D87" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E87" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A88" s="2">
         <v>42148</v>
       </c>
@@ -2813,8 +2725,11 @@
       <c r="D88" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E88" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A89" s="2">
         <v>42148</v>
       </c>
@@ -2827,8 +2742,11 @@
       <c r="D89" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E89" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A90" s="2">
         <v>42148</v>
       </c>
@@ -2841,8 +2759,11 @@
       <c r="D90" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E90" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A91" s="2">
         <v>42148</v>
       </c>
@@ -2855,8 +2776,11 @@
       <c r="D91" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E91" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A92" s="2">
         <v>42148</v>
       </c>
@@ -2869,8 +2793,11 @@
       <c r="D92" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E92" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A93" s="2">
         <v>42148</v>
       </c>
@@ -2883,8 +2810,11 @@
       <c r="D93" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E93" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A94" s="2">
         <v>42148</v>
       </c>
@@ -2897,8 +2827,11 @@
       <c r="D94" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E94" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A95" s="2">
         <v>42148</v>
       </c>
@@ -2911,8 +2844,11 @@
       <c r="D95" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E95" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A96" s="2">
         <v>42148</v>
       </c>
@@ -2925,8 +2861,11 @@
       <c r="D96" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E96" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A97" s="2">
         <v>42148</v>
       </c>
@@ -2939,8 +2878,11 @@
       <c r="D97" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E97" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A98" s="2">
         <v>42148</v>
       </c>
@@ -2953,8 +2895,11 @@
       <c r="D98" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E98" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A99" s="2">
         <v>42148</v>
       </c>
@@ -2967,8 +2912,11 @@
       <c r="D99" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E99" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A100" s="2">
         <v>42148</v>
       </c>
@@ -2981,8 +2929,11 @@
       <c r="D100" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E100" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A101" s="2">
         <v>42148</v>
       </c>
@@ -2995,8 +2946,11 @@
       <c r="D101" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E101" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A102" s="2">
         <v>42149</v>
       </c>
@@ -3009,8 +2963,11 @@
       <c r="D102" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E102" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A103" s="2">
         <v>42149</v>
       </c>
@@ -3023,8 +2980,11 @@
       <c r="D103" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E103" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A104" s="2">
         <v>42149</v>
       </c>
@@ -3037,8 +2997,11 @@
       <c r="D104" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E104" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A105" s="2">
         <v>42149</v>
       </c>
@@ -3051,8 +3014,11 @@
       <c r="D105" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E105" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A106" s="2">
         <v>42149</v>
       </c>
@@ -3065,8 +3031,11 @@
       <c r="D106" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E106" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A107" s="2">
         <v>42149</v>
       </c>
@@ -3079,8 +3048,11 @@
       <c r="D107" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E107" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A108" s="2">
         <v>42149</v>
       </c>
@@ -3093,8 +3065,11 @@
       <c r="D108" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E108" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A109" s="2">
         <v>42149</v>
       </c>
@@ -3107,8 +3082,11 @@
       <c r="D109" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E109" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A110" s="2">
         <v>42149</v>
       </c>
@@ -3121,8 +3099,11 @@
       <c r="D110" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E110" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A111" s="2">
         <v>42149</v>
       </c>
@@ -3135,8 +3116,11 @@
       <c r="D111" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E111" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A112" s="2">
         <v>42149</v>
       </c>
@@ -3149,8 +3133,11 @@
       <c r="D112" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E112" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A113" s="2">
         <v>42149</v>
       </c>
@@ -3163,8 +3150,11 @@
       <c r="D113" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E113" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A114" s="2">
         <v>42149</v>
       </c>
@@ -3177,8 +3167,11 @@
       <c r="D114" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E114" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="115" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A115" s="2">
         <v>42149</v>
       </c>
@@ -3191,8 +3184,11 @@
       <c r="D115" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E115" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="116" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A116" s="2">
         <v>42149</v>
       </c>
@@ -3205,8 +3201,11 @@
       <c r="D116" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E116" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A117" s="2">
         <v>42149</v>
       </c>
@@ -3219,8 +3218,11 @@
       <c r="D117" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E117" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A118" s="2">
         <v>42149</v>
       </c>
@@ -3233,8 +3235,11 @@
       <c r="D118" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E118" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A119" s="2">
         <v>42149</v>
       </c>
@@ -3247,8 +3252,11 @@
       <c r="D119" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E119" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A120" s="2">
         <v>42149</v>
       </c>
@@ -3261,8 +3269,11 @@
       <c r="D120" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E120" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A121" s="2">
         <v>42149</v>
       </c>
@@ -3275,8 +3286,11 @@
       <c r="D121" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E121" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A122" s="2">
         <v>42149</v>
       </c>
@@ -3289,8 +3303,11 @@
       <c r="D122" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E122" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A123" s="2">
         <v>42149</v>
       </c>
@@ -3303,8 +3320,11 @@
       <c r="D123" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E123" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A124" s="2">
         <v>42149</v>
       </c>
@@ -3317,8 +3337,11 @@
       <c r="D124" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E124" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A125" s="2">
         <v>42149</v>
       </c>
@@ -3331,8 +3354,11 @@
       <c r="D125" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E125" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A126" s="2">
         <v>42149</v>
       </c>
@@ -3345,8 +3371,11 @@
       <c r="D126" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E126" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A127" s="2">
         <v>42149</v>
       </c>
@@ -3359,8 +3388,11 @@
       <c r="D127" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E127" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A128" s="2">
         <v>42149</v>
       </c>
@@ -3373,8 +3405,11 @@
       <c r="D128" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E128" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A129" s="2">
         <v>42150</v>
       </c>
@@ -3387,8 +3422,11 @@
       <c r="D129" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E129" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A130" s="2">
         <v>42150</v>
       </c>
@@ -3401,8 +3439,11 @@
       <c r="D130" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E130" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A131" s="2">
         <v>42150</v>
       </c>
@@ -3415,8 +3456,11 @@
       <c r="D131" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E131" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A132" s="2">
         <v>42150</v>
       </c>
@@ -3429,8 +3473,11 @@
       <c r="D132" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E132" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A133" s="2">
         <v>42150</v>
       </c>
@@ -3443,8 +3490,11 @@
       <c r="D133" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E133" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A134" s="2">
         <v>42150</v>
       </c>
@@ -3457,8 +3507,11 @@
       <c r="D134" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E134" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A135" s="2">
         <v>42150</v>
       </c>
@@ -3471,8 +3524,11 @@
       <c r="D135" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E135" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A136" s="2">
         <v>42150</v>
       </c>
@@ -3485,8 +3541,11 @@
       <c r="D136" t="s">
         <v>136</v>
       </c>
-    </row>
-    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E136" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A137" s="2">
         <v>42150</v>
       </c>
@@ -3499,8 +3558,11 @@
       <c r="D137" t="s">
         <v>138</v>
       </c>
-    </row>
-    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E137" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A138" s="2">
         <v>42150</v>
       </c>
@@ -3513,8 +3575,11 @@
       <c r="D138" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E138" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A139" s="2">
         <v>42150</v>
       </c>
@@ -3527,8 +3592,11 @@
       <c r="D139" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E139" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A140" s="2">
         <v>42150</v>
       </c>
@@ -3541,8 +3609,11 @@
       <c r="D140" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E140" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A141" s="2">
         <v>42150</v>
       </c>
@@ -3555,8 +3626,11 @@
       <c r="D141" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E141" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A142" s="2">
         <v>42150</v>
       </c>
@@ -3569,8 +3643,11 @@
       <c r="D142" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E142" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A143" s="2">
         <v>42150</v>
       </c>
@@ -3583,8 +3660,11 @@
       <c r="D143" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E143" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A144" s="2">
         <v>42150</v>
       </c>
@@ -3597,8 +3677,11 @@
       <c r="D144" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E144" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A145" s="2">
         <v>42150</v>
       </c>
@@ -3611,8 +3694,11 @@
       <c r="D145" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E145" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A146" s="2">
         <v>42151</v>
       </c>
@@ -3625,8 +3711,11 @@
       <c r="D146" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E146" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A147" s="2">
         <v>42151</v>
       </c>
@@ -3639,8 +3728,11 @@
       <c r="D147" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E147" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A148" s="2">
         <v>42151</v>
       </c>
@@ -3653,8 +3745,11 @@
       <c r="D148" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E148" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A149" s="2">
         <v>42151</v>
       </c>
@@ -3667,8 +3762,11 @@
       <c r="D149" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E149" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A150" s="2">
         <v>42151</v>
       </c>
@@ -3681,8 +3779,11 @@
       <c r="D150" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E150" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A151" s="2">
         <v>42151</v>
       </c>
@@ -3695,8 +3796,11 @@
       <c r="D151" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E151" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A152" s="2">
         <v>42151</v>
       </c>
@@ -3709,8 +3813,11 @@
       <c r="D152" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E152" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A153" s="2">
         <v>42151</v>
       </c>
@@ -3723,8 +3830,11 @@
       <c r="D153" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E153" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A154" s="2">
         <v>42151</v>
       </c>
@@ -3737,8 +3847,11 @@
       <c r="D154" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E154" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A155" s="2">
         <v>42151</v>
       </c>
@@ -3751,8 +3864,11 @@
       <c r="D155" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E155" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A156" s="2">
         <v>42151</v>
       </c>
@@ -3765,8 +3881,11 @@
       <c r="D156" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E156" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A157" s="2">
         <v>42151</v>
       </c>
@@ -3779,8 +3898,11 @@
       <c r="D157" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E157" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A158" s="2">
         <v>42151</v>
       </c>
@@ -3793,8 +3915,11 @@
       <c r="D158" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E158" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A159" s="2">
         <v>42151</v>
       </c>
@@ -3807,8 +3932,11 @@
       <c r="D159" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E159" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A160" s="2">
         <v>42151</v>
       </c>
@@ -3821,8 +3949,11 @@
       <c r="D160" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E160" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A161" s="2">
         <v>42151</v>
       </c>
@@ -3835,8 +3966,11 @@
       <c r="D161" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E161" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A162" s="2">
         <v>42151</v>
       </c>
@@ -3849,8 +3983,11 @@
       <c r="D162" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E162" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A163" s="2">
         <v>42151</v>
       </c>
@@ -3863,8 +4000,11 @@
       <c r="D163" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E163" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A164" s="2">
         <v>42151</v>
       </c>
@@ -3877,8 +4017,11 @@
       <c r="D164" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E164" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A165" s="2">
         <v>42151</v>
       </c>
@@ -3891,8 +4034,11 @@
       <c r="D165" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E165" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A166" s="2">
         <v>42151</v>
       </c>
@@ -3905,8 +4051,11 @@
       <c r="D166" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E166" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A167" s="2">
         <v>42151</v>
       </c>
@@ -3919,8 +4068,11 @@
       <c r="D167" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E167" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A168" s="2">
         <v>42151</v>
       </c>
@@ -3933,8 +4085,11 @@
       <c r="D168" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E168" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A169" s="2">
         <v>42151</v>
       </c>
@@ -3947,8 +4102,11 @@
       <c r="D169" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E169" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A170" s="2">
         <v>42152</v>
       </c>
@@ -3961,8 +4119,11 @@
       <c r="D170" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E170" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A171" s="2">
         <v>42152</v>
       </c>
@@ -3975,8 +4136,11 @@
       <c r="D171" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E171" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A172" s="2">
         <v>42152</v>
       </c>
@@ -3989,8 +4153,11 @@
       <c r="D172" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E172" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A173" s="2">
         <v>42152</v>
       </c>
@@ -4003,8 +4170,11 @@
       <c r="D173" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E173" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A174" s="2">
         <v>42152</v>
       </c>
@@ -4017,8 +4187,11 @@
       <c r="D174" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E174" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A175" s="2">
         <v>42152</v>
       </c>
@@ -4031,8 +4204,11 @@
       <c r="D175" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E175" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A176" s="2">
         <v>42152</v>
       </c>
@@ -4045,8 +4221,11 @@
       <c r="D176" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E176" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A177" s="2">
         <v>42152</v>
       </c>
@@ -4059,8 +4238,11 @@
       <c r="D177" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E177" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A178" s="2">
         <v>42152</v>
       </c>
@@ -4073,8 +4255,11 @@
       <c r="D178" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E178" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A179" s="2">
         <v>42152</v>
       </c>
@@ -4087,8 +4272,11 @@
       <c r="D179" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E179" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A180" s="2">
         <v>42152</v>
       </c>
@@ -4101,8 +4289,11 @@
       <c r="D180" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E180" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A181" s="2">
         <v>42152</v>
       </c>
@@ -4115,8 +4306,11 @@
       <c r="D181" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E181" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A182" s="2">
         <v>42152</v>
       </c>
@@ -4129,8 +4323,11 @@
       <c r="D182" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E182" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A183" s="2">
         <v>42152</v>
       </c>
@@ -4143,8 +4340,11 @@
       <c r="D183" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E183" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A184" s="2">
         <v>42152</v>
       </c>
@@ -4157,8 +4357,11 @@
       <c r="D184" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E184" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A185" s="2">
         <v>42152</v>
       </c>
@@ -4171,8 +4374,11 @@
       <c r="D185" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E185" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A186" s="2">
         <v>42152</v>
       </c>
@@ -4185,8 +4391,11 @@
       <c r="D186" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E186" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A187" s="2">
         <v>42152</v>
       </c>
@@ -4199,8 +4408,11 @@
       <c r="D187" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E187" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A188" s="2">
         <v>42152</v>
       </c>
@@ -4213,8 +4425,11 @@
       <c r="D188" t="s">
         <v>175</v>
       </c>
-    </row>
-    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E188" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A189" s="2">
         <v>42152</v>
       </c>
@@ -4227,8 +4442,11 @@
       <c r="D189" t="s">
         <v>140</v>
       </c>
-    </row>
-    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E189" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A190" s="2">
         <v>42152</v>
       </c>
@@ -4241,8 +4459,11 @@
       <c r="D190" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E190" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A191" s="2">
         <v>42152</v>
       </c>
@@ -4255,8 +4476,11 @@
       <c r="D191" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E191" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A192" s="2">
         <v>42152</v>
       </c>
@@ -4269,8 +4493,11 @@
       <c r="D192" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E192" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A193" s="2">
         <v>42152</v>
       </c>
@@ -4283,8 +4510,11 @@
       <c r="D193" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E193" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A194" s="2">
         <v>42152</v>
       </c>
@@ -4297,8 +4527,11 @@
       <c r="D194" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E194" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A195" s="2">
         <v>42152</v>
       </c>
@@ -4311,8 +4544,11 @@
       <c r="D195" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E195" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A196" s="2">
         <v>42153</v>
       </c>
@@ -4325,8 +4561,11 @@
       <c r="D196" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E196" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A197" s="2">
         <v>42153</v>
       </c>
@@ -4339,8 +4578,11 @@
       <c r="D197" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E197" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A198" s="2">
         <v>42153</v>
       </c>
@@ -4353,8 +4595,11 @@
       <c r="D198" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E198" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A199" s="2">
         <v>42153</v>
       </c>
@@ -4367,8 +4612,11 @@
       <c r="D199" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E199" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A200" s="2">
         <v>42153</v>
       </c>
@@ -4381,8 +4629,11 @@
       <c r="D200" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E200" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A201" s="2">
         <v>42153</v>
       </c>
@@ -4395,8 +4646,11 @@
       <c r="D201" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E201" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A202" s="2">
         <v>42153</v>
       </c>
@@ -4409,8 +4663,11 @@
       <c r="D202" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E202" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A203" s="2">
         <v>42153</v>
       </c>
@@ -4423,8 +4680,11 @@
       <c r="D203" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E203" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A204" s="2">
         <v>42153</v>
       </c>
@@ -4437,8 +4697,11 @@
       <c r="D204" t="s">
         <v>187</v>
       </c>
-    </row>
-    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E204" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A205" s="2">
         <v>42153</v>
       </c>
@@ -4451,8 +4714,11 @@
       <c r="D205" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E205" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A206" s="2">
         <v>42154</v>
       </c>
@@ -4465,8 +4731,11 @@
       <c r="D206" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E206" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A207" s="2">
         <v>42154</v>
       </c>
@@ -4479,8 +4748,11 @@
       <c r="D207" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E207" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A208" s="2">
         <v>42154</v>
       </c>
@@ -4493,8 +4765,11 @@
       <c r="D208" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E208" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A209" s="2">
         <v>42154</v>
       </c>
@@ -4507,8 +4782,11 @@
       <c r="D209" t="s">
         <v>189</v>
       </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E209" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A210" s="2">
         <v>42154</v>
       </c>
@@ -4521,8 +4799,11 @@
       <c r="D210" t="s">
         <v>158</v>
       </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E210" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A211" s="2">
         <v>42154</v>
       </c>
@@ -4535,8 +4816,11 @@
       <c r="D211" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E211" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A212" s="2">
         <v>42154</v>
       </c>
@@ -4549,8 +4833,11 @@
       <c r="D212" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E212" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A213" s="2">
         <v>42154</v>
       </c>
@@ -4563,8 +4850,11 @@
       <c r="D213" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E213" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A214" s="2">
         <v>42154</v>
       </c>
@@ -4577,8 +4867,11 @@
       <c r="D214" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E214" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A215" s="2">
         <v>42154</v>
       </c>
@@ -4591,8 +4884,11 @@
       <c r="D215" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E215" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A216" s="2">
         <v>42154</v>
       </c>
@@ -4605,8 +4901,11 @@
       <c r="D216" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E216" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A217" s="2">
         <v>42154</v>
       </c>
@@ -4619,8 +4918,11 @@
       <c r="D217" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E217" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A218" s="2">
         <v>42154</v>
       </c>
@@ -4633,8 +4935,11 @@
       <c r="D218" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="219" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E218" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A219" s="2">
         <v>42154</v>
       </c>
@@ -4647,8 +4952,11 @@
       <c r="D219" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="220" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E219" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A220" s="2">
         <v>42154</v>
       </c>
@@ -4661,8 +4969,11 @@
       <c r="D220" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="221" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E220" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A221" s="2">
         <v>42154</v>
       </c>
@@ -4675,8 +4986,11 @@
       <c r="D221" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="222" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E221" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A222" s="2">
         <v>42154</v>
       </c>
@@ -4689,8 +5003,11 @@
       <c r="D222" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="223" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E222" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A223" s="2">
         <v>42154</v>
       </c>
@@ -4703,8 +5020,11 @@
       <c r="D223" t="s">
         <v>132</v>
       </c>
-    </row>
-    <row r="224" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E223" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A224" s="2">
         <v>42154</v>
       </c>
@@ -4717,8 +5037,11 @@
       <c r="D224" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="225" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E224" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A225" s="2">
         <v>42154</v>
       </c>
@@ -4731,8 +5054,11 @@
       <c r="D225" t="s">
         <v>198</v>
       </c>
-    </row>
-    <row r="226" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E225" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A226" s="2">
         <v>42154</v>
       </c>
@@ -4745,8 +5071,11 @@
       <c r="D226" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="227" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E226" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A227" s="2">
         <v>42154</v>
       </c>
@@ -4759,8 +5088,11 @@
       <c r="D227" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="228" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E227" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A228" s="2">
         <v>42154</v>
       </c>
@@ -4773,8 +5105,11 @@
       <c r="D228" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="229" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E228" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A229" s="2">
         <v>42154</v>
       </c>
@@ -4787,8 +5122,11 @@
       <c r="D229" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="230" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E229" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A230" s="2">
         <v>42154</v>
       </c>
@@ -4801,8 +5139,11 @@
       <c r="D230" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="231" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E230" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A231" s="2">
         <v>42154</v>
       </c>
@@ -4815,8 +5156,11 @@
       <c r="D231" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="232" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E231" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A232" s="2">
         <v>42154</v>
       </c>
@@ -4829,8 +5173,11 @@
       <c r="D232" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="233" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E232" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A233" s="2">
         <v>42154</v>
       </c>
@@ -4843,8 +5190,11 @@
       <c r="D233" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="234" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E233" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A234" s="2">
         <v>42154</v>
       </c>
@@ -4857,8 +5207,11 @@
       <c r="D234" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="235" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E234" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A235" s="2">
         <v>42154</v>
       </c>
@@ -4871,8 +5224,11 @@
       <c r="D235" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="236" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E235" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A236" s="2">
         <v>42154</v>
       </c>
@@ -4885,8 +5241,11 @@
       <c r="D236" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="237" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E236" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A237" s="2">
         <v>42154</v>
       </c>
@@ -4899,8 +5258,11 @@
       <c r="D237" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="238" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E237" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A238" s="2">
         <v>42154</v>
       </c>
@@ -4913,8 +5275,11 @@
       <c r="D238" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="239" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E238" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A239" s="2">
         <v>42154</v>
       </c>
@@ -4927,8 +5292,11 @@
       <c r="D239" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="240" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E239" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A240" s="2">
         <v>42154</v>
       </c>
@@ -4941,8 +5309,11 @@
       <c r="D240" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="241" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E240" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A241" s="2">
         <v>42154</v>
       </c>
@@ -4955,8 +5326,11 @@
       <c r="D241" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="242" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E241" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A242" s="2">
         <v>42154</v>
       </c>
@@ -4969,8 +5343,11 @@
       <c r="D242" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="243" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E242" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A243" s="2">
         <v>42154</v>
       </c>
@@ -4983,8 +5360,11 @@
       <c r="D243" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="244" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E243" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A244" s="2">
         <v>42154</v>
       </c>
@@ -4997,8 +5377,11 @@
       <c r="D244" t="s">
         <v>210</v>
       </c>
-    </row>
-    <row r="245" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E244" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A245" s="2">
         <v>42154</v>
       </c>
@@ -5011,8 +5394,11 @@
       <c r="D245" t="s">
         <v>212</v>
       </c>
-    </row>
-    <row r="246" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E245" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A246" s="2">
         <v>42154</v>
       </c>
@@ -5025,8 +5411,11 @@
       <c r="D246" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="247" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E246" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A247" s="2">
         <v>42154</v>
       </c>
@@ -5039,8 +5428,11 @@
       <c r="D247" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="248" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E247" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A248" s="2">
         <v>42154</v>
       </c>
@@ -5053,8 +5445,11 @@
       <c r="D248" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="249" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E248" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A249" s="2">
         <v>42154</v>
       </c>
@@ -5067,8 +5462,11 @@
       <c r="D249" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="250" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E249" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A250" s="2">
         <v>42154</v>
       </c>
@@ -5081,8 +5479,11 @@
       <c r="D250" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="251" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E250" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A251" s="2">
         <v>42154</v>
       </c>
@@ -5095,8 +5496,11 @@
       <c r="D251" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="252" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E251" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="252" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A252" s="2">
         <v>42154</v>
       </c>
@@ -5109,8 +5513,11 @@
       <c r="D252" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="253" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E252" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="253" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A253" s="2">
         <v>42154</v>
       </c>
@@ -5123,8 +5530,11 @@
       <c r="D253" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="254" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E253" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A254" s="2">
         <v>42154</v>
       </c>
@@ -5137,8 +5547,11 @@
       <c r="D254" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="255" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E254" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A255" s="2">
         <v>42154</v>
       </c>
@@ -5151,8 +5564,11 @@
       <c r="D255" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="256" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E255" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A256" s="2">
         <v>42154</v>
       </c>
@@ -5165,8 +5581,11 @@
       <c r="D256" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="257" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E256" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A257" s="2">
         <v>42154</v>
       </c>
@@ -5179,8 +5598,11 @@
       <c r="D257" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="258" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E257" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A258" s="2">
         <v>42154</v>
       </c>
@@ -5193,8 +5615,11 @@
       <c r="D258" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="259" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E258" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A259" s="2">
         <v>42154</v>
       </c>
@@ -5207,8 +5632,11 @@
       <c r="D259" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="260" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E259" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A260" s="2">
         <v>42155</v>
       </c>
@@ -5221,8 +5649,11 @@
       <c r="D260" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="261" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E260" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A261" s="2">
         <v>42155</v>
       </c>
@@ -5235,8 +5666,11 @@
       <c r="D261" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="262" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E261" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A262" s="2">
         <v>42155</v>
       </c>
@@ -5249,8 +5683,11 @@
       <c r="D262" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="263" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E262" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A263" s="2">
         <v>42156</v>
       </c>
@@ -5263,8 +5700,11 @@
       <c r="D263" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="264" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E263" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A264" s="2">
         <v>42156</v>
       </c>
@@ -5277,8 +5717,11 @@
       <c r="D264" t="s">
         <v>220</v>
       </c>
-    </row>
-    <row r="265" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E264" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A265" s="2">
         <v>42156</v>
       </c>
@@ -5291,8 +5734,11 @@
       <c r="D265" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="266" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E265" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A266" s="2">
         <v>42156</v>
       </c>
@@ -5305,8 +5751,11 @@
       <c r="D266" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="267" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E266" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A267" s="2">
         <v>42156</v>
       </c>
@@ -5319,8 +5768,11 @@
       <c r="D267" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="268" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E267" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A268" s="2">
         <v>42156</v>
       </c>
@@ -5333,8 +5785,11 @@
       <c r="D268" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="269" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E268" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A269" s="2">
         <v>42156</v>
       </c>
@@ -5347,8 +5802,11 @@
       <c r="D269" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="270" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E269" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A270" s="2">
         <v>42156</v>
       </c>
@@ -5361,8 +5819,11 @@
       <c r="D270" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="271" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E270" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A271" s="2">
         <v>42156</v>
       </c>
@@ -5375,8 +5836,11 @@
       <c r="D271" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="272" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E271" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A272" s="2">
         <v>42156</v>
       </c>
@@ -5389,8 +5853,11 @@
       <c r="D272" t="s">
         <v>228</v>
       </c>
-    </row>
-    <row r="273" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E272" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A273" s="2">
         <v>42158</v>
       </c>
@@ -5403,8 +5870,11 @@
       <c r="D273" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="274" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E273" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="274" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A274" s="2">
         <v>42158</v>
       </c>
@@ -5417,8 +5887,11 @@
       <c r="D274" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="275" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E274" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A275" s="2">
         <v>42158</v>
       </c>
@@ -5431,8 +5904,11 @@
       <c r="D275" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="276" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E275" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A276" s="2">
         <v>42158</v>
       </c>
@@ -5445,8 +5921,11 @@
       <c r="D276" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="277" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E276" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A277" s="2">
         <v>42158</v>
       </c>
@@ -5459,8 +5938,11 @@
       <c r="D277" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="278" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E277" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A278" s="2">
         <v>42160</v>
       </c>
@@ -5473,8 +5955,11 @@
       <c r="D278" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="279" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E278" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A279" s="2">
         <v>42160</v>
       </c>
@@ -5487,8 +5972,11 @@
       <c r="D279" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="280" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E279" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A280" s="2">
         <v>42160</v>
       </c>
@@ -5501,8 +5989,11 @@
       <c r="D280" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="281" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E280" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A281" s="2">
         <v>42160</v>
       </c>
@@ -5515,8 +6006,11 @@
       <c r="D281" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="282" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E281" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A282" s="2">
         <v>42160</v>
       </c>
@@ -5529,8 +6023,11 @@
       <c r="D282" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="283" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E282" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A283" s="2">
         <v>42160</v>
       </c>
@@ -5543,8 +6040,11 @@
       <c r="D283" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="284" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E283" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A284" s="2">
         <v>42160</v>
       </c>
@@ -5557,8 +6057,11 @@
       <c r="D284" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="285" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E284" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A285" s="2">
         <v>42160</v>
       </c>
@@ -5571,8 +6074,11 @@
       <c r="D285" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="286" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E285" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A286" s="2">
         <v>42160</v>
       </c>
@@ -5585,8 +6091,11 @@
       <c r="D286" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="287" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E286" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A287" s="2">
         <v>42160</v>
       </c>
@@ -5599,8 +6108,11 @@
       <c r="D287" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="288" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E287" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A288" s="2">
         <v>42160</v>
       </c>
@@ -5613,8 +6125,11 @@
       <c r="D288" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="289" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E288" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A289" s="2">
         <v>42160</v>
       </c>
@@ -5627,8 +6142,11 @@
       <c r="D289" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="290" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E289" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A290" s="2">
         <v>42160</v>
       </c>
@@ -5641,8 +6159,11 @@
       <c r="D290" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="291" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E290" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A291" s="2">
         <v>42160</v>
       </c>
@@ -5655,8 +6176,11 @@
       <c r="D291" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="292" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E291" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A292" s="2">
         <v>42162</v>
       </c>
@@ -5669,8 +6193,11 @@
       <c r="D292" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="293" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E292" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A293" s="2">
         <v>42162</v>
       </c>
@@ -5683,8 +6210,11 @@
       <c r="D293" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="294" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E293" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A294" s="2">
         <v>42162</v>
       </c>
@@ -5697,8 +6227,11 @@
       <c r="D294" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="295" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E294" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A295" s="2">
         <v>42162</v>
       </c>
@@ -5711,8 +6244,11 @@
       <c r="D295" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="296" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E295" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A296" s="2">
         <v>42162</v>
       </c>
@@ -5725,8 +6261,11 @@
       <c r="D296" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="297" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E296" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A297" s="2">
         <v>42162</v>
       </c>
@@ -5739,8 +6278,11 @@
       <c r="D297" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="298" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E297" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A298" s="2">
         <v>42162</v>
       </c>
@@ -5753,8 +6295,11 @@
       <c r="D298" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="299" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E298" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A299" s="2">
         <v>42162</v>
       </c>
@@ -5767,8 +6312,11 @@
       <c r="D299" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="300" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E299" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A300" s="2">
         <v>42162</v>
       </c>
@@ -5781,8 +6329,11 @@
       <c r="D300" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="301" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E300" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A301" s="2">
         <v>42162</v>
       </c>
@@ -5795,8 +6346,11 @@
       <c r="D301" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="302" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E301" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A302" s="2">
         <v>42162</v>
       </c>
@@ -5809,8 +6363,11 @@
       <c r="D302" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="303" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E302" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A303" s="2">
         <v>42162</v>
       </c>
@@ -5823,8 +6380,11 @@
       <c r="D303" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="304" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E303" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A304" s="2">
         <v>42162</v>
       </c>
@@ -5837,8 +6397,11 @@
       <c r="D304" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="305" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E304" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A305" s="2">
         <v>42162</v>
       </c>
@@ -5851,8 +6414,11 @@
       <c r="D305" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="306" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E305" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A306" s="2">
         <v>42162</v>
       </c>
@@ -5865,8 +6431,11 @@
       <c r="D306" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="307" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E306" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A307" s="2">
         <v>42162</v>
       </c>
@@ -5879,8 +6448,11 @@
       <c r="D307" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="308" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E307" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A308" s="2">
         <v>42162</v>
       </c>
@@ -5893,8 +6465,11 @@
       <c r="D308" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="309" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E308" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A309" s="2">
         <v>42162</v>
       </c>
@@ -5907,8 +6482,11 @@
       <c r="D309" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="310" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E309" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A310" s="2">
         <v>42162</v>
       </c>
@@ -5921,8 +6499,11 @@
       <c r="D310" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="311" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E310" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A311" s="2">
         <v>42162</v>
       </c>
@@ -5935,8 +6516,11 @@
       <c r="D311" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="312" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E311" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A312" s="2">
         <v>42162</v>
       </c>
@@ -5949,8 +6533,11 @@
       <c r="D312" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="313" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E312" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A313" s="2">
         <v>42163</v>
       </c>
@@ -5963,8 +6550,11 @@
       <c r="D313" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="314" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E313" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A314" s="2">
         <v>42163</v>
       </c>
@@ -5977,8 +6567,11 @@
       <c r="D314" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="315" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E314" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A315" s="2">
         <v>42163</v>
       </c>
@@ -5991,8 +6584,11 @@
       <c r="D315" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="316" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E315" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A316" s="2">
         <v>42163</v>
       </c>
@@ -6005,8 +6601,11 @@
       <c r="D316" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="317" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E316" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A317" s="2">
         <v>42163</v>
       </c>
@@ -6019,8 +6618,11 @@
       <c r="D317" t="s">
         <v>244</v>
       </c>
-    </row>
-    <row r="318" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E317" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A318" s="2">
         <v>42163</v>
       </c>
@@ -6033,8 +6635,11 @@
       <c r="D318" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="319" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E318" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A319" s="2">
         <v>42163</v>
       </c>
@@ -6047,8 +6652,11 @@
       <c r="D319" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="320" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E319" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A320" s="2">
         <v>42163</v>
       </c>
@@ -6061,8 +6669,11 @@
       <c r="D320" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="321" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E320" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A321" s="2">
         <v>42163</v>
       </c>
@@ -6075,8 +6686,11 @@
       <c r="D321" t="s">
         <v>247</v>
       </c>
-    </row>
-    <row r="322" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E321" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A322" s="2">
         <v>42163</v>
       </c>
@@ -6089,8 +6703,11 @@
       <c r="D322" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="323" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E322" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A323" s="2">
         <v>42163</v>
       </c>
@@ -6103,8 +6720,11 @@
       <c r="D323" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="324" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E323" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A324" s="2">
         <v>42163</v>
       </c>
@@ -6117,8 +6737,11 @@
       <c r="D324" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="325" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E324" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A325" s="2">
         <v>42164</v>
       </c>
@@ -6131,8 +6754,11 @@
       <c r="D325" t="s">
         <v>164</v>
       </c>
-    </row>
-    <row r="326" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E325" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A326" s="2">
         <v>42164</v>
       </c>
@@ -6145,8 +6771,11 @@
       <c r="D326" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="327" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E326" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A327" s="2">
         <v>42164</v>
       </c>
@@ -6159,8 +6788,11 @@
       <c r="D327" t="s">
         <v>252</v>
       </c>
-    </row>
-    <row r="328" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E327" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A328" s="2">
         <v>42164</v>
       </c>
@@ -6173,8 +6805,11 @@
       <c r="D328" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="329" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E328" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A329" s="2">
         <v>42164</v>
       </c>
@@ -6187,8 +6822,11 @@
       <c r="D329" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="330" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E329" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A330" s="2">
         <v>42164</v>
       </c>
@@ -6201,8 +6839,11 @@
       <c r="D330" t="s">
         <v>180</v>
       </c>
-    </row>
-    <row r="331" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E330" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="331" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A331" s="2">
         <v>42164</v>
       </c>
@@ -6215,8 +6856,11 @@
       <c r="D331" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="332" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E331" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A332" s="2">
         <v>42164</v>
       </c>
@@ -6229,8 +6873,11 @@
       <c r="D332" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="333" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E332" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A333" s="2">
         <v>42164</v>
       </c>
@@ -6243,8 +6890,11 @@
       <c r="D333" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="334" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E333" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A334" s="2">
         <v>42164</v>
       </c>
@@ -6257,8 +6907,11 @@
       <c r="D334" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="335" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E334" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A335" s="2">
         <v>42164</v>
       </c>
@@ -6271,8 +6924,11 @@
       <c r="D335" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="336" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E335" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A336" s="2">
         <v>42164</v>
       </c>
@@ -6285,8 +6941,11 @@
       <c r="D336" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="337" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E336" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A337" s="2">
         <v>42164</v>
       </c>
@@ -6299,8 +6958,11 @@
       <c r="D337" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="338" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E337" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A338" s="2">
         <v>42164</v>
       </c>
@@ -6313,8 +6975,11 @@
       <c r="D338" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="339" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E338" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A339" s="2">
         <v>42164</v>
       </c>
@@ -6327,8 +6992,11 @@
       <c r="D339" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="340" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E339" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A340" s="2">
         <v>42166</v>
       </c>
@@ -6341,8 +7009,11 @@
       <c r="D340" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="341" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E340" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A341" s="2">
         <v>42167</v>
       </c>
@@ -6355,8 +7026,11 @@
       <c r="D341" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="342" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E341" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A342" s="2">
         <v>42167</v>
       </c>
@@ -6369,8 +7043,11 @@
       <c r="D342" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="343" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E342" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A343" s="2">
         <v>42167</v>
       </c>
@@ -6383,8 +7060,11 @@
       <c r="D343" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="344" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E343" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A344" s="2">
         <v>42167</v>
       </c>
@@ -6397,8 +7077,11 @@
       <c r="D344" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="345" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E344" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A345" s="2">
         <v>42167</v>
       </c>
@@ -6411,8 +7094,11 @@
       <c r="D345" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="346" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E345" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A346" s="2">
         <v>42168</v>
       </c>
@@ -6425,8 +7111,11 @@
       <c r="D346" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="347" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E346" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A347" s="2">
         <v>42168</v>
       </c>
@@ -6439,8 +7128,11 @@
       <c r="D347" t="s">
         <v>171</v>
       </c>
-    </row>
-    <row r="348" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E347" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A348" s="2">
         <v>42168</v>
       </c>
@@ -6453,8 +7145,11 @@
       <c r="D348" t="s">
         <v>259</v>
       </c>
-    </row>
-    <row r="349" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E348" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A349" s="2">
         <v>42169</v>
       </c>
@@ -6467,8 +7162,11 @@
       <c r="D349" t="s">
         <v>238</v>
       </c>
-    </row>
-    <row r="350" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E349" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A350" s="2">
         <v>42172</v>
       </c>
@@ -6481,8 +7179,11 @@
       <c r="D350" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="351" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E350" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A351" s="2">
         <v>42172</v>
       </c>
@@ -6495,8 +7196,11 @@
       <c r="D351" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="352" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E351" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A352" s="2">
         <v>42173</v>
       </c>
@@ -6509,8 +7213,11 @@
       <c r="D352" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="353" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E352" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A353" s="2">
         <v>42173</v>
       </c>
@@ -6523,8 +7230,11 @@
       <c r="D353" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="354" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E353" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A354" s="2">
         <v>42173</v>
       </c>
@@ -6537,8 +7247,11 @@
       <c r="D354" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="355" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E354" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A355" s="2">
         <v>42173</v>
       </c>
@@ -6551,8 +7264,11 @@
       <c r="D355" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="356" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E355" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A356" s="2">
         <v>42173</v>
       </c>
@@ -6565,8 +7281,11 @@
       <c r="D356" t="s">
         <v>173</v>
       </c>
-    </row>
-    <row r="357" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E356" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A357" s="2">
         <v>42173</v>
       </c>
@@ -6579,8 +7298,11 @@
       <c r="D357" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="358" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E357" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A358" s="2">
         <v>42173</v>
       </c>
@@ -6593,8 +7315,11 @@
       <c r="D358" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="359" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E358" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A359" s="2">
         <v>42173</v>
       </c>
@@ -6607,8 +7332,11 @@
       <c r="D359" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="360" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E359" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A360" s="2">
         <v>42173</v>
       </c>
@@ -6621,8 +7349,11 @@
       <c r="D360" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="361" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E360" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A361" s="2">
         <v>42173</v>
       </c>
@@ -6635,8 +7366,11 @@
       <c r="D361" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="362" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E361" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A362" s="2">
         <v>42173</v>
       </c>
@@ -6649,8 +7383,11 @@
       <c r="D362" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="363" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E362" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A363" s="2">
         <v>42173</v>
       </c>
@@ -6663,8 +7400,11 @@
       <c r="D363" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="364" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E363" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A364" s="2">
         <v>42173</v>
       </c>
@@ -6677,8 +7417,11 @@
       <c r="D364" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="365" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E364" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A365" s="2">
         <v>42173</v>
       </c>
@@ -6691,8 +7434,11 @@
       <c r="D365" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="366" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E365" s="4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A366" s="2">
         <v>42173</v>
       </c>
@@ -6704,6 +7450,9 @@
       </c>
       <c r="D366" t="s">
         <v>44</v>
+      </c>
+      <c r="E366" s="4">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
